--- a/Electrical/HouseElectrics3.xlsx
+++ b/Electrical/HouseElectrics3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2AD57-8383-4504-B589-E481E0457E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F56E27-905F-423F-B574-C52F5FFF6768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="11235" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerAndLight" sheetId="1" r:id="rId1"/>
     <sheet name="Distribution" sheetId="4" r:id="rId2"/>
-    <sheet name="Lights" sheetId="2" r:id="rId3"/>
+    <sheet name="Scratch" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="225">
   <si>
     <t>Services</t>
   </si>
@@ -43,21 +43,12 @@
     <t>Gas Boiler</t>
   </si>
   <si>
-    <t>Computer Rack</t>
-  </si>
-  <si>
     <t>Outside</t>
   </si>
   <si>
-    <t>Rainwater Pump</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Sump Drain</t>
-  </si>
-  <si>
     <t>Sewerage Pump</t>
   </si>
   <si>
@@ -67,30 +58,12 @@
     <t>Garden Lights</t>
   </si>
   <si>
-    <t>Shed Power</t>
-  </si>
-  <si>
-    <t>Switched Applicance</t>
-  </si>
-  <si>
-    <t>Switched Appliance</t>
-  </si>
-  <si>
-    <t>2 way Gang</t>
-  </si>
-  <si>
-    <t>Outside Radial</t>
-  </si>
-  <si>
     <t>Kitchen</t>
   </si>
   <si>
     <t>Oven 1</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Cooker Hood</t>
   </si>
   <si>
@@ -118,9 +91,6 @@
     <t>Wall Sockets</t>
   </si>
   <si>
-    <t>Includes Island</t>
-  </si>
-  <si>
     <t>In Island</t>
   </si>
   <si>
@@ -181,9 +151,6 @@
     <t>Main bathroom</t>
   </si>
   <si>
-    <t>Patio</t>
-  </si>
-  <si>
     <t>BR1</t>
   </si>
   <si>
@@ -211,12 +178,6 @@
     <t>Kitchen/Dining</t>
   </si>
   <si>
-    <t>Cottage roof</t>
-  </si>
-  <si>
-    <t>Electric Roof Window</t>
-  </si>
-  <si>
     <t>Study</t>
   </si>
   <si>
@@ -226,15 +187,9 @@
     <t>Closet</t>
   </si>
   <si>
-    <t>Water Closet</t>
-  </si>
-  <si>
     <t>Kids Room</t>
   </si>
   <si>
-    <t>Sitting Room</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -253,12 +208,6 @@
     <t>floor lights</t>
   </si>
   <si>
-    <t>Staircase</t>
-  </si>
-  <si>
-    <t>tread lights</t>
-  </si>
-  <si>
     <t>6 to 8</t>
   </si>
   <si>
@@ -271,27 +220,12 @@
     <t>pendants</t>
   </si>
   <si>
-    <t>wall light</t>
-  </si>
-  <si>
     <t>Living Room</t>
   </si>
   <si>
-    <t>Kids/Living</t>
-  </si>
-  <si>
-    <t>Pendants</t>
-  </si>
-  <si>
-    <t>pendant light</t>
-  </si>
-  <si>
     <t>1 in shower , 1 over bath(Zone 1)</t>
   </si>
   <si>
-    <t>wall socket</t>
-  </si>
-  <si>
     <t>Entrance</t>
   </si>
   <si>
@@ -484,9 +418,6 @@
     <t>Wall wash Uplighters</t>
   </si>
   <si>
-    <t>Not decided exactly which models to use here</t>
-  </si>
-  <si>
     <t>Floor Socket</t>
   </si>
   <si>
@@ -496,16 +427,286 @@
     <t>Tread Wash LEDs</t>
   </si>
   <si>
-    <t>Set of LEDs</t>
-  </si>
-  <si>
     <t>5A Lamp Socket</t>
   </si>
   <si>
     <t>Dual Socket in Floor recess</t>
   </si>
   <si>
-    <t>In Floor recess</t>
+    <t>Put appliance switch inside cupboard</t>
+  </si>
+  <si>
+    <t>Put appliance switch inside cupboard (spur off ring?)</t>
+  </si>
+  <si>
+    <t>C1.R6</t>
+  </si>
+  <si>
+    <t>GF Kitchen Study Ring Main</t>
+  </si>
+  <si>
+    <t>Single Spur to Electric Velux</t>
+  </si>
+  <si>
+    <t>Spur from socket on ring</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>External Double Wall Socket</t>
+  </si>
+  <si>
+    <t>External (off of ring or separate RCBO?)</t>
+  </si>
+  <si>
+    <t>Radial to Relay</t>
+  </si>
+  <si>
+    <t>Radial to Relay, In Floor recess</t>
+  </si>
+  <si>
+    <t>Radial to Relay, Not decided exactly which models to use here</t>
+  </si>
+  <si>
+    <t>Radial to Relay, Set of LEDs</t>
+  </si>
+  <si>
+    <t>1 radial connection to relay</t>
+  </si>
+  <si>
+    <t>Parapet Wall Light</t>
+  </si>
+  <si>
+    <t>External Door light</t>
+  </si>
+  <si>
+    <t>Island Pendant</t>
+  </si>
+  <si>
+    <t>Island Spotlight cluster</t>
+  </si>
+  <si>
+    <t>Worktop lighting</t>
+  </si>
+  <si>
+    <t>Under the high shelf units, set of led lights</t>
+  </si>
+  <si>
+    <t>Kicker plate led lights</t>
+  </si>
+  <si>
+    <t>Wall wash uplighters</t>
+  </si>
+  <si>
+    <t>Center Pendant</t>
+  </si>
+  <si>
+    <t>LED Step light</t>
+  </si>
+  <si>
+    <t>Between kitchen and kidsroom</t>
+  </si>
+  <si>
+    <t>Between kitchen and main up step</t>
+  </si>
+  <si>
+    <t>Includes Island, and spur to wall mounted TV</t>
+  </si>
+  <si>
+    <t>Includes 2 spurs to Truss power and 1 spur to wall mounted TV</t>
+  </si>
+  <si>
+    <t>C1.R7</t>
+  </si>
+  <si>
+    <t>Light Power - LAN RELAY UNIT 3</t>
+  </si>
+  <si>
+    <t>C2.U3.R1</t>
+  </si>
+  <si>
+    <t>C2.U3.R2</t>
+  </si>
+  <si>
+    <t>C2.U3.R3</t>
+  </si>
+  <si>
+    <t>C2.U3.R4</t>
+  </si>
+  <si>
+    <t>C2.U3.R5</t>
+  </si>
+  <si>
+    <t>C2.U3.R6</t>
+  </si>
+  <si>
+    <t>C2.U3.R7</t>
+  </si>
+  <si>
+    <t>C2.U3.R8</t>
+  </si>
+  <si>
+    <t>C2.U3.R9</t>
+  </si>
+  <si>
+    <t>C2.U3.R10</t>
+  </si>
+  <si>
+    <t>C2.U3.R11</t>
+  </si>
+  <si>
+    <t>C2.U3.R12</t>
+  </si>
+  <si>
+    <t>C2.U3.R13</t>
+  </si>
+  <si>
+    <t>C2.U3.R14</t>
+  </si>
+  <si>
+    <t>C2.U3.R15</t>
+  </si>
+  <si>
+    <t>C2.U3.R16</t>
+  </si>
+  <si>
+    <t>Spotlight cluster</t>
+  </si>
+  <si>
+    <t>Center Spotlight Cluster</t>
+  </si>
+  <si>
+    <t>Smoke Alarm</t>
+  </si>
+  <si>
+    <t>Sockets</t>
+  </si>
+  <si>
+    <t>C1.R8</t>
+  </si>
+  <si>
+    <t>LGF Ring Ring Main A</t>
+  </si>
+  <si>
+    <t>LGF Ring Ring Main B</t>
+  </si>
+  <si>
+    <t>Smoke Alarms</t>
+  </si>
+  <si>
+    <t>Rainwater pump</t>
+  </si>
+  <si>
+    <t>&lt;3 amps</t>
+  </si>
+  <si>
+    <t>Sewage Pump</t>
+  </si>
+  <si>
+    <t>Shed/Garage Power</t>
+  </si>
+  <si>
+    <t>C1.R9</t>
+  </si>
+  <si>
+    <t>NC RELAY</t>
+  </si>
+  <si>
+    <t>This is connected to the pendant light in the services room, if the server crashes, then I want the relay to be normally closed so the light turns on.</t>
+  </si>
+  <si>
+    <t>Consider battery backed emergency light</t>
+  </si>
+  <si>
+    <t>Underfloor heating pump</t>
+  </si>
+  <si>
+    <t>Kicker Plate LEDS</t>
+  </si>
+  <si>
+    <t>LED slimline lights (8W)</t>
+  </si>
+  <si>
+    <t>Heated Mirror</t>
+  </si>
+  <si>
+    <t>Workshop Understairs</t>
+  </si>
+  <si>
+    <t>Workshop Noth</t>
+  </si>
+  <si>
+    <t>C1.R10</t>
+  </si>
+  <si>
+    <t>Light Power - LAN RELAY UNIT 4</t>
+  </si>
+  <si>
+    <t>C2.U4.R1</t>
+  </si>
+  <si>
+    <t>C2.U4.R2</t>
+  </si>
+  <si>
+    <t>C2.U4.R3</t>
+  </si>
+  <si>
+    <t>C2.U4.R4</t>
+  </si>
+  <si>
+    <t>C2.U4.R5</t>
+  </si>
+  <si>
+    <t>C2.U4.R6</t>
+  </si>
+  <si>
+    <t>C2.U4.R7</t>
+  </si>
+  <si>
+    <t>C2.U4.R8</t>
+  </si>
+  <si>
+    <t>C2.U4.R9</t>
+  </si>
+  <si>
+    <t>C2.U4.R10</t>
+  </si>
+  <si>
+    <t>C2.U4.R11</t>
+  </si>
+  <si>
+    <t>C2.U4.R12</t>
+  </si>
+  <si>
+    <t>C2.U4.R13</t>
+  </si>
+  <si>
+    <t>C2.U4.R14</t>
+  </si>
+  <si>
+    <t>C2.U4.R15</t>
+  </si>
+  <si>
+    <t>C2.U4.R16</t>
+  </si>
+  <si>
+    <t>Main Bathroom Hallway</t>
+  </si>
+  <si>
+    <t>Low level washers</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Main Hallway</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Ceiling washers</t>
   </si>
 </sst>
 </file>
@@ -562,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -572,6 +773,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -588,6 +792,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>430301</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE8EC5A-0736-4F63-B01D-1D045CBD5FB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115925" y="952500"/>
+          <a:ext cx="12012701" cy="7201905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,19 +1140,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -907,74 +1160,77 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -984,38 +1240,40 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1023,409 +1281,429 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E8" s="4">
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -1433,1384 +1711,2720 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>13</v>
+      <c r="F34" t="s">
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
-        <v>13</v>
+      <c r="F35" t="s">
+        <v>134</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>19</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>13</v>
+      <c r="F39" t="s">
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="E40">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>18</v>
+      <c r="H41" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E42">
         <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="E43">
         <v>1</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E46">
         <v>1</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
+      <c r="H47" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
+      <c r="F48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49">
-        <v>13</v>
+      <c r="F49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E50">
         <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E51">
         <v>1</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="D53" t="s">
-        <v>47</v>
+      <c r="C53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E53">
         <v>1</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
+        <v>139</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" t="s">
-        <v>27</v>
+        <v>139</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
+      <c r="F57" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" t="s">
-        <v>57</v>
+        <v>139</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>146</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59">
-        <v>13</v>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60">
-        <v>13</v>
+      <c r="F60" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E61">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61">
-        <v>13</v>
+      <c r="H61" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62">
-        <v>13</v>
+      <c r="H62" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>194</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71">
         <v>4</v>
       </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>197</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="2">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
       <c r="B82" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="E84">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>31</v>
       </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>31</v>
       </c>
-      <c r="E86">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D87" t="s">
-        <v>38</v>
+        <v>219</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>221</v>
+      </c>
+      <c r="H89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>223</v>
+      </c>
+      <c r="H92" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>223</v>
+      </c>
+      <c r="H93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
         <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F01D42-5EBB-4ECC-9840-DDA0887B62A4}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
         <v>106</v>
       </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
         <v>109</v>
       </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
         <v>110</v>
       </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
         <v>113</v>
       </c>
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" t="s">
-        <v>139</v>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2820,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,478 +4450,148 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
       <c r="D16" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
         <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="2">
         <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Electrical/HouseElectrics3.xlsx
+++ b/Electrical/HouseElectrics3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F56E27-905F-423F-B574-C52F5FFF6768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DA9A8-CED2-4493-AF72-B8FE2B8804DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="11235" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="277">
   <si>
     <t>Services</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Gas Boiler</t>
   </si>
   <si>
-    <t>Outside</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -175,15 +172,9 @@
     <t xml:space="preserve">Wall sockets </t>
   </si>
   <si>
-    <t>Kitchen/Dining</t>
-  </si>
-  <si>
     <t>Study</t>
   </si>
   <si>
-    <t>Storage</t>
-  </si>
-  <si>
     <t>Closet</t>
   </si>
   <si>
@@ -199,27 +190,9 @@
     <t>spotlights</t>
   </si>
   <si>
-    <t>Hallways</t>
-  </si>
-  <si>
-    <t>wall lights</t>
-  </si>
-  <si>
-    <t>floor lights</t>
-  </si>
-  <si>
-    <t>6 to 8</t>
-  </si>
-  <si>
-    <t>2 to 3</t>
-  </si>
-  <si>
     <t>1 in shower (Zone 1)</t>
   </si>
   <si>
-    <t>pendants</t>
-  </si>
-  <si>
     <t>Living Room</t>
   </si>
   <si>
@@ -707,6 +680,189 @@
   </si>
   <si>
     <t>Ceiling washers</t>
+  </si>
+  <si>
+    <t>Door Outside</t>
+  </si>
+  <si>
+    <t>Outside Light</t>
+  </si>
+  <si>
+    <t>External socket</t>
+  </si>
+  <si>
+    <t>C2.U5.R1</t>
+  </si>
+  <si>
+    <t>C2.U5.R2</t>
+  </si>
+  <si>
+    <t>C2.U5.R3</t>
+  </si>
+  <si>
+    <t>C2.U5.R4</t>
+  </si>
+  <si>
+    <t>C2.U5.R5</t>
+  </si>
+  <si>
+    <t>C2.U5.R6</t>
+  </si>
+  <si>
+    <t>C2.U5.R7</t>
+  </si>
+  <si>
+    <t>C2.U5.R8</t>
+  </si>
+  <si>
+    <t>C2.U5.R9</t>
+  </si>
+  <si>
+    <t>C2.U5.R10</t>
+  </si>
+  <si>
+    <t>C2.U5.R11</t>
+  </si>
+  <si>
+    <t>C2.U5.R12</t>
+  </si>
+  <si>
+    <t>C2.U5.R13</t>
+  </si>
+  <si>
+    <t>C2.U5.R14</t>
+  </si>
+  <si>
+    <t>C2.U5.R15</t>
+  </si>
+  <si>
+    <t>C2.U5.R16</t>
+  </si>
+  <si>
+    <t>External Light</t>
+  </si>
+  <si>
+    <t>Security Light</t>
+  </si>
+  <si>
+    <t>C2.U6.R1</t>
+  </si>
+  <si>
+    <t>C2.U6.R2</t>
+  </si>
+  <si>
+    <t>C2.U6.R3</t>
+  </si>
+  <si>
+    <t>C2.U6.R4</t>
+  </si>
+  <si>
+    <t>C2.U6.R5</t>
+  </si>
+  <si>
+    <t>C2.U6.R6</t>
+  </si>
+  <si>
+    <t>C2.U6.R7</t>
+  </si>
+  <si>
+    <t>C2.U6.R8</t>
+  </si>
+  <si>
+    <t>C2.U6.R9</t>
+  </si>
+  <si>
+    <t>C2.U6.R10</t>
+  </si>
+  <si>
+    <t>C2.U6.R11</t>
+  </si>
+  <si>
+    <t>C2.U6.R12</t>
+  </si>
+  <si>
+    <t>C2.U6.R13</t>
+  </si>
+  <si>
+    <t>C2.U6.R14</t>
+  </si>
+  <si>
+    <t>C2.U6.R15</t>
+  </si>
+  <si>
+    <t>C2.U6.R16</t>
+  </si>
+  <si>
+    <t>C2.U7.R1</t>
+  </si>
+  <si>
+    <t>C2.U7.R2</t>
+  </si>
+  <si>
+    <t>C2.U7.R3</t>
+  </si>
+  <si>
+    <t>C2.U7.R4</t>
+  </si>
+  <si>
+    <t>C2.U7.R5</t>
+  </si>
+  <si>
+    <t>C2.U7.R6</t>
+  </si>
+  <si>
+    <t>C2.U7.R7</t>
+  </si>
+  <si>
+    <t>C2.U7.R8</t>
+  </si>
+  <si>
+    <t>C2.U7.R9</t>
+  </si>
+  <si>
+    <t>C2.U7.R10</t>
+  </si>
+  <si>
+    <t>C2.U7.R11</t>
+  </si>
+  <si>
+    <t>C2.U7.R12</t>
+  </si>
+  <si>
+    <t>C2.U7.R13</t>
+  </si>
+  <si>
+    <t>C2.U7.R14</t>
+  </si>
+  <si>
+    <t>C2.U7.R15</t>
+  </si>
+  <si>
+    <t>C2.U7.R16</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Underfloor Heating Valve Control</t>
+  </si>
+  <si>
+    <t>C1.R11</t>
+  </si>
+  <si>
+    <t>C1.R12</t>
+  </si>
+  <si>
+    <t>UFH Valve Power - LAN RELAY UNIT 6</t>
+  </si>
+  <si>
+    <t>UFH Valve Power - LAN RELAY UNIT 5</t>
+  </si>
+  <si>
+    <t>deep sockets everywhere</t>
+  </si>
+  <si>
+    <t>General NOTES</t>
   </si>
 </sst>
 </file>
@@ -832,6 +988,50 @@
         <a:xfrm>
           <a:off x="13115925" y="952500"/>
           <a:ext cx="12012701" cy="7201905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>20584</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>48642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15D87146-26AF-467A-B67E-B15A3A80037D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468350" y="9144000"/>
+          <a:ext cx="10993384" cy="7287642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,77 +1360,88 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1240,40 +1451,40 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1281,429 +1492,429 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4">
         <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4">
         <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -1711,789 +1922,789 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E30" s="4">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -2502,935 +2713,1299 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H59" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H60" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E61">
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H63" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E71">
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" t="s">
-        <v>37</v>
-      </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E75" s="2">
         <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E76" s="2">
         <v>2</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E79" s="2">
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E80" s="2">
         <v>2</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
         <v>45</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" t="s">
-        <v>46</v>
       </c>
       <c r="E81">
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H84" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H89" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H92" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H93" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" t="s">
-        <v>40</v>
+        <v>216</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="2">
+        <v>6</v>
+      </c>
+      <c r="H97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" s="2">
+        <v>4</v>
+      </c>
+      <c r="H98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="H101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="2">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>50</v>
+      </c>
+      <c r="E106" s="2">
+        <v>6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="H109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" s="2">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>31</v>
       </c>
-      <c r="B96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>31</v>
       </c>
-      <c r="B97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" t="s">
-        <v>41</v>
-      </c>
-      <c r="D98" t="s">
-        <v>53</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>42</v>
-      </c>
-      <c r="B99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" t="s">
-        <v>44</v>
-      </c>
-      <c r="D101" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" t="s">
-        <v>44</v>
-      </c>
-      <c r="D102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E102" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F138" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
         <v>21</v>
       </c>
-      <c r="E127">
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139">
         <v>2</v>
       </c>
-      <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" t="s">
-        <v>21</v>
-      </c>
-      <c r="E128">
-        <v>4</v>
-      </c>
-      <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>25</v>
-      </c>
-      <c r="D129" t="s">
-        <v>21</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D130" t="s">
-        <v>21</v>
-      </c>
-      <c r="E130">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="F139" t="s">
         <v>28</v>
-      </c>
-      <c r="E131">
-        <v>2</v>
-      </c>
-      <c r="F131" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3442,10 +4017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F01D42-5EBB-4ECC-9840-DDA0887B62A4}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,974 +4032,1867 @@
     <col min="5" max="5" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
         <v>89</v>
       </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
         <v>90</v>
       </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
         <v>94</v>
       </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
         <v>96</v>
       </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" t="s">
-        <v>113</v>
-      </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>193</v>
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" t="s">
-        <v>115</v>
+        <v>162</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
         <v>203</v>
       </c>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
         <v>204</v>
       </c>
-      <c r="C67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
         <v>205</v>
       </c>
-      <c r="C68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" t="s">
         <v>206</v>
       </c>
-      <c r="C69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" t="s">
         <v>207</v>
       </c>
-      <c r="C70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
         <v>208</v>
       </c>
-      <c r="C71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
         <v>209</v>
       </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" t="s">
-        <v>210</v>
-      </c>
-      <c r="C73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>116</v>
-      </c>
-      <c r="B75" t="s">
-        <v>212</v>
-      </c>
-      <c r="C75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>116</v>
-      </c>
-      <c r="B79" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>116</v>
-      </c>
-      <c r="B81" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" t="s">
-        <v>115</v>
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" t="s">
+        <v>106</v>
+      </c>
+      <c r="D118" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>107</v>
+      </c>
+      <c r="B119" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>107</v>
+      </c>
+      <c r="B123" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
+        <v>106</v>
+      </c>
+      <c r="D125" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" t="s">
+        <v>106</v>
+      </c>
+      <c r="D126" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>107</v>
+      </c>
+      <c r="B127" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" t="s">
+        <v>106</v>
+      </c>
+      <c r="D128" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B129" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" t="s">
+        <v>265</v>
+      </c>
+      <c r="C130" t="s">
+        <v>106</v>
+      </c>
+      <c r="D130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" t="s">
+        <v>106</v>
+      </c>
+      <c r="D131" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" t="s">
+        <v>267</v>
+      </c>
+      <c r="C132" t="s">
+        <v>106</v>
+      </c>
+      <c r="D132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133" t="s">
+        <v>106</v>
+      </c>
+      <c r="D133" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4437,7 +5905,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4450,149 +5918,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Electrical/HouseElectrics3.xlsx
+++ b/Electrical/HouseElectrics3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374DA9A8-CED2-4493-AF72-B8FE2B8804DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="11235" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="0" windowWidth="11235" windowHeight="6630"/>
   </bookViews>
   <sheets>
-    <sheet name="PowerAndLight" sheetId="1" r:id="rId1"/>
-    <sheet name="Distribution" sheetId="4" r:id="rId2"/>
-    <sheet name="Scratch" sheetId="2" r:id="rId3"/>
+    <sheet name="Overview" sheetId="5" r:id="rId1"/>
+    <sheet name="PowerAndLight" sheetId="1" r:id="rId2"/>
+    <sheet name="Distribution" sheetId="4" r:id="rId3"/>
+    <sheet name="Scratch" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="324">
   <si>
     <t>Services</t>
   </si>
@@ -616,54 +616,6 @@
     <t>Light Power - LAN RELAY UNIT 4</t>
   </si>
   <si>
-    <t>C2.U4.R1</t>
-  </si>
-  <si>
-    <t>C2.U4.R2</t>
-  </si>
-  <si>
-    <t>C2.U4.R3</t>
-  </si>
-  <si>
-    <t>C2.U4.R4</t>
-  </si>
-  <si>
-    <t>C2.U4.R5</t>
-  </si>
-  <si>
-    <t>C2.U4.R6</t>
-  </si>
-  <si>
-    <t>C2.U4.R7</t>
-  </si>
-  <si>
-    <t>C2.U4.R8</t>
-  </si>
-  <si>
-    <t>C2.U4.R9</t>
-  </si>
-  <si>
-    <t>C2.U4.R10</t>
-  </si>
-  <si>
-    <t>C2.U4.R11</t>
-  </si>
-  <si>
-    <t>C2.U4.R12</t>
-  </si>
-  <si>
-    <t>C2.U4.R13</t>
-  </si>
-  <si>
-    <t>C2.U4.R14</t>
-  </si>
-  <si>
-    <t>C2.U4.R15</t>
-  </si>
-  <si>
-    <t>C2.U4.R16</t>
-  </si>
-  <si>
     <t>Main Bathroom Hallway</t>
   </si>
   <si>
@@ -691,156 +643,12 @@
     <t>External socket</t>
   </si>
   <si>
-    <t>C2.U5.R1</t>
-  </si>
-  <si>
-    <t>C2.U5.R2</t>
-  </si>
-  <si>
-    <t>C2.U5.R3</t>
-  </si>
-  <si>
-    <t>C2.U5.R4</t>
-  </si>
-  <si>
-    <t>C2.U5.R5</t>
-  </si>
-  <si>
-    <t>C2.U5.R6</t>
-  </si>
-  <si>
-    <t>C2.U5.R7</t>
-  </si>
-  <si>
-    <t>C2.U5.R8</t>
-  </si>
-  <si>
-    <t>C2.U5.R9</t>
-  </si>
-  <si>
-    <t>C2.U5.R10</t>
-  </si>
-  <si>
-    <t>C2.U5.R11</t>
-  </si>
-  <si>
-    <t>C2.U5.R12</t>
-  </si>
-  <si>
-    <t>C2.U5.R13</t>
-  </si>
-  <si>
-    <t>C2.U5.R14</t>
-  </si>
-  <si>
-    <t>C2.U5.R15</t>
-  </si>
-  <si>
-    <t>C2.U5.R16</t>
-  </si>
-  <si>
     <t>External Light</t>
   </si>
   <si>
     <t>Security Light</t>
   </si>
   <si>
-    <t>C2.U6.R1</t>
-  </si>
-  <si>
-    <t>C2.U6.R2</t>
-  </si>
-  <si>
-    <t>C2.U6.R3</t>
-  </si>
-  <si>
-    <t>C2.U6.R4</t>
-  </si>
-  <si>
-    <t>C2.U6.R5</t>
-  </si>
-  <si>
-    <t>C2.U6.R6</t>
-  </si>
-  <si>
-    <t>C2.U6.R7</t>
-  </si>
-  <si>
-    <t>C2.U6.R8</t>
-  </si>
-  <si>
-    <t>C2.U6.R9</t>
-  </si>
-  <si>
-    <t>C2.U6.R10</t>
-  </si>
-  <si>
-    <t>C2.U6.R11</t>
-  </si>
-  <si>
-    <t>C2.U6.R12</t>
-  </si>
-  <si>
-    <t>C2.U6.R13</t>
-  </si>
-  <si>
-    <t>C2.U6.R14</t>
-  </si>
-  <si>
-    <t>C2.U6.R15</t>
-  </si>
-  <si>
-    <t>C2.U6.R16</t>
-  </si>
-  <si>
-    <t>C2.U7.R1</t>
-  </si>
-  <si>
-    <t>C2.U7.R2</t>
-  </si>
-  <si>
-    <t>C2.U7.R3</t>
-  </si>
-  <si>
-    <t>C2.U7.R4</t>
-  </si>
-  <si>
-    <t>C2.U7.R5</t>
-  </si>
-  <si>
-    <t>C2.U7.R6</t>
-  </si>
-  <si>
-    <t>C2.U7.R7</t>
-  </si>
-  <si>
-    <t>C2.U7.R8</t>
-  </si>
-  <si>
-    <t>C2.U7.R9</t>
-  </si>
-  <si>
-    <t>C2.U7.R10</t>
-  </si>
-  <si>
-    <t>C2.U7.R11</t>
-  </si>
-  <si>
-    <t>C2.U7.R12</t>
-  </si>
-  <si>
-    <t>C2.U7.R13</t>
-  </si>
-  <si>
-    <t>C2.U7.R14</t>
-  </si>
-  <si>
-    <t>C2.U7.R15</t>
-  </si>
-  <si>
-    <t>C2.U7.R16</t>
-  </si>
-  <si>
     <t>Lighting</t>
   </si>
   <si>
@@ -863,13 +671,346 @@
   </si>
   <si>
     <t>General NOTES</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>DJB</t>
+  </si>
+  <si>
+    <t>Initial Cut</t>
+  </si>
+  <si>
+    <t>Added lighting</t>
+  </si>
+  <si>
+    <t>Mapped lights to Relay units, now complete</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>General Notes</t>
+  </si>
+  <si>
+    <t>No light switches necessary - these will all be smart switches powered over POE using CAT 6 - be fitted by myself.</t>
+  </si>
+  <si>
+    <t>All sockets to be the deeper types so that they can accommodate flush mount sockets in future.</t>
+  </si>
+  <si>
+    <t>Supply and fit all cabling, and dual wall sockets, recessed floor trays, 5A sockets, consumer unit, RCBO. We will source and provide all the lights.</t>
+  </si>
+  <si>
+    <t>https://uk.rs-online.com/web/p/consumer-units/8111919/</t>
+  </si>
+  <si>
+    <t>For the consumer unit I would like 1 consumer unit for the RCBO's, and 2 other cabinets to house the relay units and associated electronics.</t>
+  </si>
+  <si>
+    <t>The relay units are 12 din units wide (approx 210mm) but I need room for power supplies, etc.</t>
+  </si>
+  <si>
+    <t>I've drawn out 4 ring mains, but I'm not sure if this is necessary</t>
+  </si>
+  <si>
+    <t>The lights will all be connected back to the services room, so there will be a lot of radial circuits (but no light switches)</t>
+  </si>
+  <si>
+    <t>Please can you also quote for a fire alarm - this has to be wired and I am interested in finding the most attractive or small ones we can.</t>
+  </si>
+  <si>
+    <t>I'd like the ones for the relays to have a clear window to see the status leds, I was thinking along the lines of a mistral unit by ABB but I do not know if it is non-combustable, (or if it has to be). I need a lot of din rail space, and the steel ones are very very expensive</t>
+  </si>
+  <si>
+    <t>Consumer Unit 3</t>
+  </si>
+  <si>
+    <t>Consumer Unit 1 - eg 21 way metal</t>
+  </si>
+  <si>
+    <t>Consumer Unit 2 - 72 way ABB Mistral clear window</t>
+  </si>
+  <si>
+    <t>Power Feed</t>
+  </si>
+  <si>
+    <t>C1.R13</t>
+  </si>
+  <si>
+    <t>C1.R14</t>
+  </si>
+  <si>
+    <t>C1.R15</t>
+  </si>
+  <si>
+    <t>C1.R16</t>
+  </si>
+  <si>
+    <t>C1.R17</t>
+  </si>
+  <si>
+    <t>C1.R18</t>
+  </si>
+  <si>
+    <t>Consumer Unit 3 - 72 way ABB Mistral clear window</t>
+  </si>
+  <si>
+    <t>C3.U4.R1</t>
+  </si>
+  <si>
+    <t>C3.U4.R2</t>
+  </si>
+  <si>
+    <t>C3.U4.R3</t>
+  </si>
+  <si>
+    <t>C3.U4.R4</t>
+  </si>
+  <si>
+    <t>C3.U4.R5</t>
+  </si>
+  <si>
+    <t>C3.U4.R6</t>
+  </si>
+  <si>
+    <t>C3.U4.R7</t>
+  </si>
+  <si>
+    <t>C3.U4.R8</t>
+  </si>
+  <si>
+    <t>C3.U4.R9</t>
+  </si>
+  <si>
+    <t>C3.U4.R10</t>
+  </si>
+  <si>
+    <t>C3.U4.R11</t>
+  </si>
+  <si>
+    <t>C3.U4.R12</t>
+  </si>
+  <si>
+    <t>C3.U4.R13</t>
+  </si>
+  <si>
+    <t>C3.U4.R14</t>
+  </si>
+  <si>
+    <t>C3.U4.R15</t>
+  </si>
+  <si>
+    <t>C3.U4.R16</t>
+  </si>
+  <si>
+    <t>C3.U5.R1</t>
+  </si>
+  <si>
+    <t>C3.U5.R2</t>
+  </si>
+  <si>
+    <t>C3.U5.R3</t>
+  </si>
+  <si>
+    <t>C3.U5.R4</t>
+  </si>
+  <si>
+    <t>C3.U5.R5</t>
+  </si>
+  <si>
+    <t>C3.U5.R6</t>
+  </si>
+  <si>
+    <t>C3.U5.R7</t>
+  </si>
+  <si>
+    <t>C3.U5.R8</t>
+  </si>
+  <si>
+    <t>C3.U5.R9</t>
+  </si>
+  <si>
+    <t>C3.U5.R10</t>
+  </si>
+  <si>
+    <t>C3.U5.R11</t>
+  </si>
+  <si>
+    <t>C3.U5.R12</t>
+  </si>
+  <si>
+    <t>Light Power - LAN RELAY UNIT 5</t>
+  </si>
+  <si>
+    <t>C3.U1.R1</t>
+  </si>
+  <si>
+    <t>C3.U1.R2</t>
+  </si>
+  <si>
+    <t>C3.U1.R3</t>
+  </si>
+  <si>
+    <t>C3.U1.R4</t>
+  </si>
+  <si>
+    <t>C3.U1.R5</t>
+  </si>
+  <si>
+    <t>C3.U1.R6</t>
+  </si>
+  <si>
+    <t>C3.U1.R7</t>
+  </si>
+  <si>
+    <t>C3.U1.R8</t>
+  </si>
+  <si>
+    <t>C3.U1.R9</t>
+  </si>
+  <si>
+    <t>C3.U1.R10</t>
+  </si>
+  <si>
+    <t>C3.U1.R11</t>
+  </si>
+  <si>
+    <t>C3.U1.R12</t>
+  </si>
+  <si>
+    <t>C3.U1.R13</t>
+  </si>
+  <si>
+    <t>C3.U1.R14</t>
+  </si>
+  <si>
+    <t>C3.U1.R15</t>
+  </si>
+  <si>
+    <t>C3.U1.R16</t>
+  </si>
+  <si>
+    <t>C3.U5.R13</t>
+  </si>
+  <si>
+    <t>C3.U5.R14</t>
+  </si>
+  <si>
+    <t>C3.U5.R15</t>
+  </si>
+  <si>
+    <t>C3.U5.R16</t>
+  </si>
+  <si>
+    <t>C3.U6.R1</t>
+  </si>
+  <si>
+    <t>C3.U6.R2</t>
+  </si>
+  <si>
+    <t>C3.U6.R3</t>
+  </si>
+  <si>
+    <t>C3.U6.R4</t>
+  </si>
+  <si>
+    <t>C3.U6.R5</t>
+  </si>
+  <si>
+    <t>C3.U6.R6</t>
+  </si>
+  <si>
+    <t>C3.U6.R7</t>
+  </si>
+  <si>
+    <t>C3.U6.R8</t>
+  </si>
+  <si>
+    <t>C3.U6.R9</t>
+  </si>
+  <si>
+    <t>C3.U6.R10</t>
+  </si>
+  <si>
+    <t>C3.U6.R11</t>
+  </si>
+  <si>
+    <t>C3.U6.R12</t>
+  </si>
+  <si>
+    <t>C3.U6.R13</t>
+  </si>
+  <si>
+    <t>C3.U6.R14</t>
+  </si>
+  <si>
+    <t>C3.U6.R15</t>
+  </si>
+  <si>
+    <t>C3.U6.R16</t>
+  </si>
+  <si>
+    <t>C3.U7.R1</t>
+  </si>
+  <si>
+    <t>C3.U7.R2</t>
+  </si>
+  <si>
+    <t>C3.U7.R3</t>
+  </si>
+  <si>
+    <t>C3.U7.R4</t>
+  </si>
+  <si>
+    <t>C3.U7.R5</t>
+  </si>
+  <si>
+    <t>C3.U7.R6</t>
+  </si>
+  <si>
+    <t>C3.U7.R7</t>
+  </si>
+  <si>
+    <t>C3.U7.R8</t>
+  </si>
+  <si>
+    <t>C3.U7.R9</t>
+  </si>
+  <si>
+    <t>C3.U7.R10</t>
+  </si>
+  <si>
+    <t>C3.U7.R11</t>
+  </si>
+  <si>
+    <t>C3.U7.R12</t>
+  </si>
+  <si>
+    <t>C3.U7.R13</t>
+  </si>
+  <si>
+    <t>C3.U7.R14</t>
+  </si>
+  <si>
+    <t>C3.U7.R15</t>
+  </si>
+  <si>
+    <t>C3.U7.R16</t>
+  </si>
+  <si>
+    <t>Radial to RCBO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,8 +1033,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,12 +1069,192 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -919,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -931,6 +1275,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -954,16 +1329,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>430301</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>487451</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>153405</xdr:rowOff>
+      <xdr:rowOff>134355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -986,7 +1361,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13115925" y="952500"/>
+          <a:off x="14744700" y="933450"/>
           <a:ext cx="12012701" cy="7201905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -998,16 +1373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>20584</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>144409</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>48642</xdr:rowOff>
+      <xdr:rowOff>39117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1030,7 +1405,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13468350" y="9144000"/>
+          <a:off x="15020925" y="9134475"/>
           <a:ext cx="10993384" cy="7287642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1339,11 +1714,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>43317</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>43336</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>43382</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,6 +1916,7 @@
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1945,7 @@
         <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1409,8 +1970,11 @@
       <c r="H2" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
       <c r="K2" s="6" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1440,6 +2004,9 @@
       <c r="H3" t="s">
         <v>74</v>
       </c>
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
       <c r="K3" s="6" t="s">
         <v>114</v>
       </c>
@@ -1472,6 +2039,9 @@
       <c r="H4" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="I4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1494,6 +2064,9 @@
       <c r="H5" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1518,6 +2091,9 @@
       <c r="H6" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1542,6 +2118,9 @@
       <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="I7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1566,6 +2145,9 @@
       <c r="H8" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="I8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1590,6 +2172,9 @@
       <c r="H9" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1614,6 +2199,9 @@
       <c r="H10" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1638,6 +2226,9 @@
       <c r="H11" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1662,6 +2253,9 @@
       <c r="H12" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1686,6 +2280,9 @@
       <c r="H13" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1710,6 +2307,9 @@
       <c r="H14" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1734,6 +2334,9 @@
       <c r="H15" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1758,8 +2361,11 @@
       <c r="H16" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1782,8 +2388,11 @@
       <c r="H17" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1806,8 +2415,11 @@
       <c r="H18" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1830,8 +2442,11 @@
       <c r="H19" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1854,8 +2469,11 @@
       <c r="H20" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -1878,8 +2496,11 @@
       <c r="H21" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
@@ -1902,8 +2523,11 @@
       <c r="H22" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1924,8 +2548,11 @@
       <c r="H23" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
@@ -1948,8 +2575,11 @@
       <c r="H24" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1972,8 +2602,11 @@
       <c r="H25" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1996,8 +2629,11 @@
       <c r="H26" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -2020,8 +2656,11 @@
       <c r="H27" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -2044,8 +2683,11 @@
       <c r="H28" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2068,8 +2710,11 @@
       <c r="H29" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -2092,8 +2737,11 @@
       <c r="H30" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -2116,8 +2764,11 @@
       <c r="H31" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2139,8 +2790,11 @@
       <c r="H32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2162,8 +2816,11 @@
       <c r="H33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2185,8 +2842,11 @@
       <c r="H34" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2208,8 +2868,11 @@
       <c r="H35" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -2231,8 +2894,11 @@
       <c r="H36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2251,8 +2917,11 @@
       <c r="H37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2274,8 +2943,11 @@
       <c r="H38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -2297,8 +2969,11 @@
       <c r="H39" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2317,8 +2992,11 @@
       <c r="H40" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2337,8 +3015,11 @@
       <c r="H41" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2360,8 +3041,11 @@
       <c r="H42" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2380,8 +3064,11 @@
       <c r="H43" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2400,8 +3087,11 @@
       <c r="H44" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2420,8 +3110,11 @@
       <c r="H45" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -2440,8 +3133,11 @@
       <c r="H46" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -2460,8 +3156,11 @@
       <c r="H47" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -2483,8 +3182,11 @@
       <c r="H48" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -2506,8 +3208,11 @@
       <c r="H49" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2526,8 +3231,11 @@
       <c r="H50" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2546,8 +3254,11 @@
       <c r="H51" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2566,8 +3277,11 @@
       <c r="H52" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2586,8 +3300,11 @@
       <c r="H53" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2606,8 +3323,11 @@
       <c r="H54" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2626,8 +3346,11 @@
       <c r="H55" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -2649,8 +3372,11 @@
       <c r="H56" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2672,8 +3398,11 @@
       <c r="H57" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -2695,8 +3424,11 @@
       <c r="H58" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2718,8 +3450,11 @@
       <c r="H59" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2741,8 +3476,11 @@
       <c r="H60" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -2761,8 +3499,11 @@
       <c r="H61" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -2781,8 +3522,11 @@
       <c r="H62" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2798,14 +3542,14 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>179</v>
-      </c>
       <c r="H63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -2822,10 +3566,13 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="I64" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -2842,10 +3589,13 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="I65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -2862,10 +3612,13 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="I66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2887,8 +3640,11 @@
       <c r="H67" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -2907,8 +3663,11 @@
       <c r="H68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -2927,8 +3686,11 @@
       <c r="H69" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -2947,8 +3709,11 @@
       <c r="H70" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -2967,8 +3732,11 @@
       <c r="H71" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -2990,8 +3758,11 @@
       <c r="H72" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -3010,8 +3781,11 @@
       <c r="H73" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -3030,8 +3804,11 @@
       <c r="H74" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -3053,8 +3830,11 @@
       <c r="H75" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -3073,8 +3853,11 @@
       <c r="H76" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -3093,8 +3876,11 @@
       <c r="H77" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -3113,8 +3899,11 @@
       <c r="H78" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -3136,8 +3925,11 @@
       <c r="H79" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -3156,8 +3948,11 @@
       <c r="H80" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -3176,8 +3971,11 @@
       <c r="H81" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>30</v>
       </c>
@@ -3199,8 +3997,11 @@
       <c r="H82" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -3220,10 +4021,13 @@
         <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="I83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -3243,10 +4047,13 @@
         <v>23</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="I84" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -3263,10 +4070,13 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="I85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -3283,15 +4093,18 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="I86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>57</v>
@@ -3305,13 +4118,16 @@
       <c r="H87" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>58</v>
@@ -3326,38 +4142,44 @@
         <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="I88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="H89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="I89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>57</v>
@@ -3371,13 +4193,16 @@
       <c r="H90" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>58</v>
@@ -3392,87 +4217,99 @@
         <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="I91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="I92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H93" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="I93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="I94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3480,8 +4317,11 @@
       <c r="H95" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -3500,8 +4340,11 @@
       <c r="H96" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -3518,10 +4361,13 @@
         <v>6</v>
       </c>
       <c r="H97" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -3538,10 +4384,13 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -3558,10 +4407,13 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -3578,10 +4430,13 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -3600,8 +4455,11 @@
       <c r="H101" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -3618,10 +4476,13 @@
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -3638,10 +4499,13 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -3658,10 +4522,13 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -3680,8 +4547,11 @@
       <c r="H105" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -3698,10 +4568,13 @@
         <v>6</v>
       </c>
       <c r="H106" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -3718,10 +4591,13 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -3738,10 +4614,13 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -3760,8 +4639,11 @@
       <c r="H109" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -3778,10 +4660,13 @@
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="I110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -3798,127 +4683,148 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="I111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="I112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="I113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="I114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>30</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="I115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="I116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>230</v>
+        <v>269</v>
+      </c>
+      <c r="I117" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -4015,12 +4921,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F01D42-5EBB-4ECC-9840-DDA0887B62A4}">
-  <dimension ref="A1:F133"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,101 +4934,80 @@
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="74.28515625" customWidth="1"/>
+    <col min="6" max="6" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -4131,15 +5016,15 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -4148,100 +5033,100 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -4250,32 +5135,32 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
@@ -4284,15 +5169,15 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -4301,15 +5186,15 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -4318,1594 +5203,2058 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
         <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s">
         <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
         <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
         <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="C32" t="s">
         <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
         <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s">
         <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>282</v>
       </c>
       <c r="C35" t="s">
         <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="C36" t="s">
         <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s">
         <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="C39" t="s">
         <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
         <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
         <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
         <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
         <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
         <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
         <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
         <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
         <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
         <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
         <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
         <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
         <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
         <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
+        <v>162</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E64" t="s">
+        <v>236</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
         <v>106</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E65" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" t="s">
         <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" t="s">
         <v>106</v>
       </c>
       <c r="D67" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
         <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
         <v>106</v>
       </c>
       <c r="D71" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>205</v>
+      </c>
+      <c r="E75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>246</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" t="s">
+        <v>248</v>
+      </c>
+      <c r="C80" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" t="s">
+        <v>205</v>
+      </c>
+      <c r="E85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" t="s">
+        <v>205</v>
+      </c>
+      <c r="E89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>205</v>
+      </c>
+      <c r="E90" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>231</v>
+      </c>
+      <c r="B91" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>205</v>
+      </c>
+      <c r="E92" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" t="s">
+        <v>264</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>205</v>
+      </c>
+      <c r="E98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>231</v>
+      </c>
+      <c r="B100" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>205</v>
+      </c>
+      <c r="E102" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+      <c r="E103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>205</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
         <v>206</v>
       </c>
-      <c r="C82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>107</v>
-      </c>
-      <c r="B83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" t="s">
-        <v>106</v>
-      </c>
-      <c r="D83" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" t="s">
-        <v>106</v>
-      </c>
-      <c r="D84" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" t="s">
-        <v>219</v>
-      </c>
-      <c r="C86" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" t="s">
-        <v>220</v>
-      </c>
-      <c r="C87" t="s">
-        <v>106</v>
-      </c>
-      <c r="D87" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" t="s">
-        <v>221</v>
-      </c>
-      <c r="C88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89" t="s">
-        <v>106</v>
-      </c>
-      <c r="D89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" t="s">
-        <v>223</v>
-      </c>
-      <c r="C90" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" t="s">
-        <v>224</v>
-      </c>
-      <c r="C91" t="s">
-        <v>106</v>
-      </c>
-      <c r="D91" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" t="s">
-        <v>225</v>
-      </c>
-      <c r="C92" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" t="s">
-        <v>106</v>
-      </c>
-      <c r="D93" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" t="s">
-        <v>227</v>
-      </c>
-      <c r="C94" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" t="s">
-        <v>228</v>
-      </c>
-      <c r="C95" t="s">
-        <v>106</v>
-      </c>
-      <c r="D95" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" t="s">
-        <v>229</v>
-      </c>
-      <c r="C96" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B97" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" t="s">
-        <v>106</v>
-      </c>
-      <c r="D97" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>107</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="E106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>231</v>
       </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" t="s">
-        <v>233</v>
-      </c>
-      <c r="C100" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" t="s">
-        <v>234</v>
-      </c>
-      <c r="C101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" t="s">
-        <v>237</v>
-      </c>
-      <c r="C102" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" t="s">
-        <v>238</v>
-      </c>
-      <c r="C103" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="B107" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D107" t="s">
+        <v>206</v>
+      </c>
+      <c r="E107" t="s">
         <v>239</v>
       </c>
-      <c r="C104" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108" t="s">
+        <v>206</v>
+      </c>
+      <c r="E108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" t="s">
+        <v>206</v>
+      </c>
+      <c r="E109" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" t="s">
+        <v>206</v>
+      </c>
+      <c r="E110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+      <c r="D111" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" t="s">
+        <v>206</v>
+      </c>
+      <c r="E112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" t="s">
+        <v>206</v>
+      </c>
+      <c r="E114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" t="s">
+        <v>206</v>
+      </c>
+      <c r="E115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" t="s">
+        <v>206</v>
+      </c>
+      <c r="E116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>302</v>
+      </c>
+      <c r="C117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" t="s">
+        <v>206</v>
+      </c>
+      <c r="E117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" t="s">
+        <v>106</v>
+      </c>
+      <c r="D118" t="s">
+        <v>206</v>
+      </c>
+      <c r="E118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" t="s">
+        <v>206</v>
+      </c>
+      <c r="E119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" t="s">
+        <v>206</v>
+      </c>
+      <c r="E120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" t="s">
+        <v>206</v>
+      </c>
+      <c r="E121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" t="s">
+        <v>206</v>
+      </c>
+      <c r="E122" t="s">
         <v>240</v>
       </c>
-      <c r="C105" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" t="s">
-        <v>106</v>
-      </c>
-      <c r="D106" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>242</v>
-      </c>
-      <c r="C107" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>243</v>
-      </c>
-      <c r="C108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D108" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109" t="s">
-        <v>106</v>
-      </c>
-      <c r="D109" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" t="s">
-        <v>245</v>
-      </c>
-      <c r="C110" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>107</v>
-      </c>
-      <c r="B112" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" t="s">
-        <v>106</v>
-      </c>
-      <c r="D112" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>107</v>
-      </c>
-      <c r="B113" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" t="s">
-        <v>106</v>
-      </c>
-      <c r="D113" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>107</v>
-      </c>
-      <c r="B115" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" t="s">
-        <v>106</v>
-      </c>
-      <c r="D115" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>107</v>
-      </c>
-      <c r="B116" t="s">
-        <v>251</v>
-      </c>
-      <c r="C116" t="s">
-        <v>106</v>
-      </c>
-      <c r="D116" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" t="s">
-        <v>106</v>
-      </c>
-      <c r="D117" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>107</v>
-      </c>
-      <c r="B118" t="s">
-        <v>253</v>
-      </c>
-      <c r="C118" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>107</v>
-      </c>
-      <c r="B119" t="s">
-        <v>254</v>
-      </c>
-      <c r="C119" t="s">
-        <v>106</v>
-      </c>
-      <c r="D119" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" t="s">
-        <v>106</v>
-      </c>
-      <c r="D120" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>107</v>
-      </c>
-      <c r="B121" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121" t="s">
-        <v>106</v>
-      </c>
-      <c r="D121" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>107</v>
-      </c>
-      <c r="B122" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" t="s">
-        <v>106</v>
-      </c>
-      <c r="D122" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="C123" t="s">
         <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C124" t="s">
         <v>106</v>
       </c>
       <c r="D124" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E124" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="C125" t="s">
         <v>106</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E125" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="C126" t="s">
         <v>106</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E126" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C127" t="s">
         <v>106</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E127" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="C128" t="s">
         <v>106</v>
       </c>
       <c r="D128" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E128" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s">
         <v>106</v>
       </c>
       <c r="D129" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E129" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="C130" t="s">
         <v>106</v>
       </c>
       <c r="D130" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E130" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="C131" t="s">
         <v>106</v>
       </c>
       <c r="D131" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E131" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C132" t="s">
         <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="E132" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="C133" t="s">
         <v>106</v>
       </c>
       <c r="D133" t="s">
-        <v>270</v>
+        <v>206</v>
+      </c>
+      <c r="E133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>231</v>
+      </c>
+      <c r="B134" t="s">
+        <v>319</v>
+      </c>
+      <c r="C134" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" t="s">
+        <v>206</v>
+      </c>
+      <c r="E134" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>231</v>
+      </c>
+      <c r="B135" t="s">
+        <v>320</v>
+      </c>
+      <c r="C135" t="s">
+        <v>106</v>
+      </c>
+      <c r="D135" t="s">
+        <v>206</v>
+      </c>
+      <c r="E135" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" t="s">
+        <v>106</v>
+      </c>
+      <c r="D136" t="s">
+        <v>206</v>
+      </c>
+      <c r="E136" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>231</v>
+      </c>
+      <c r="B137" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" t="s">
+        <v>206</v>
+      </c>
+      <c r="E137" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D19"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
